--- a/biology/Botanique/Polygonatum/Polygonatum.xlsx
+++ b/biology/Botanique/Polygonatum/Polygonatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polygonatum est un genre de plantes herbacées monocotylédones. Il appartient à la famille des Liliaceae selon la classification classique. La phylogénie moléculaire le place dans la famille des Ruscaceae (APG II), puis dans les Asparagaceae (APG III).
 D'autres classifications l'ont placé dans la famille des Convallariaceae.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes rhizomateuses : la tige souterraine s'allonge chaque année. En avril, une tige aérienne se développe pour atteindre une hauteur d'environ 70 cm. La cicatrice laissée par la tige aérienne fanée laisse une marque mimant un sceau en particulier celui de Salomon sur le rhizome qui lui est permanent.
 Les tiges sont rondes ou anguleuses. Les feuilles sont alternes ou verticillées, les fleurs sont solitaires ou par groupes à l'aisselle des feuilles, la corolle tubuleuse se termine par 6 petits lobes.
@@ -545,7 +559,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Au total, il en existe une soixantaine d'espèces dans le monde
 Polygonatum biflorum (Walter) Elliott
